--- a/va_facility_data_2025-02-20/Owensboro VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Owensboro%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Owensboro VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Owensboro%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R848558ac419148b2885728c74675fb77"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R2486535d560242b897de36f6b366c410"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R5f4d0d6e9a214a169955290b92f83794"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rf8326104d3124c54935f6b8ebb08ebe5"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rc03f46dbc2e0403ea83fb2d6e9651e76"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R6785bc8ddcfe40119db3ee5c599cc9c3"/>
   </x:sheets>
 </x:workbook>
 </file>
